--- a/tests/ak杂捕分析表模板-线上测试.xlsx
+++ b/tests/ak杂捕分析表模板-线上测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9555"/>
+    <workbookView windowWidth="15202" windowHeight="6045"/>
   </bookViews>
   <sheets>
     <sheet name="sample_list_combo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>序号</t>
   </si>
@@ -50,22 +50,16 @@
     <t>分析流程</t>
   </si>
   <si>
-    <t>PPC20250300008F1</t>
+    <t>PPA20250400018F1-ZB</t>
   </si>
   <si>
-    <t>PPC20250300008</t>
+    <t>PPA20250400018</t>
   </si>
   <si>
     <t>father</t>
   </si>
   <si>
-    <t>PPC20250300008M1</t>
-  </si>
-  <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>PPC20250300008S1</t>
+    <t>PPA20250400018S1-ZB</t>
   </si>
   <si>
     <t>child</t>
@@ -547,19 +541,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,11 +686,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1018,13 +1015,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.88495575221239" style="1"/>
     <col min="2" max="2" width="11.8849557522124" style="1" customWidth="1"/>
@@ -1062,54 +1059,37 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>20250322</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2">
+        <v>20250424</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>20250322</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2">
+        <v>20250424</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>20250322</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1">
-        <v>22</v>
+      <c r="F3" s="2">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/tests/ak杂捕分析表模板-线上测试.xlsx
+++ b/tests/ak杂捕分析表模板-线上测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15202" windowHeight="6045"/>
+    <workbookView windowWidth="21600" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="sample_list_combo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>序号</t>
   </si>
@@ -50,16 +50,25 @@
     <t>分析流程</t>
   </si>
   <si>
-    <t>PPA20250400018F1-ZB</t>
-  </si>
-  <si>
-    <t>PPA20250400018</t>
+    <t>AK25041501</t>
+  </si>
+  <si>
+    <t>PPA20250400014F1</t>
+  </si>
+  <si>
+    <t>PPA20250400014</t>
   </si>
   <si>
     <t>father</t>
   </si>
   <si>
-    <t>PPA20250400018S1-ZB</t>
+    <t>PPA20250400014M1</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>PPA20250400014S1</t>
   </si>
   <si>
     <t>child</t>
@@ -75,14 +84,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,64 +558,64 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,7 +627,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,7 +639,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,7 +651,7 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,7 +675,7 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,14 +688,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,13 +1014,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.88495575221239" style="1"/>
     <col min="2" max="2" width="11.8849557522124" style="1" customWidth="1"/>
@@ -1059,37 +1058,54 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>20250424</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>20250424</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2">
-        <v>24</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/tests/ak杂捕分析表模板-线上测试.xlsx
+++ b/tests/ak杂捕分析表模板-线上测试.xlsx
@@ -50,25 +50,25 @@
     <t>分析流程</t>
   </si>
   <si>
-    <t>AK25041501</t>
-  </si>
-  <si>
-    <t>PPA20250400014F1</t>
-  </si>
-  <si>
-    <t>PPA20250400014</t>
+    <t>AK25042502</t>
+  </si>
+  <si>
+    <t>PPA20250400027F1</t>
+  </si>
+  <si>
+    <t>PPA20250400027</t>
   </si>
   <si>
     <t>father</t>
   </si>
   <si>
-    <t>PPA20250400014M1</t>
+    <t>PPA20250400027M1</t>
   </si>
   <si>
     <t>mother</t>
   </si>
   <si>
-    <t>PPA20250400014S1</t>
+    <t>PPA20250400027S1</t>
   </si>
   <si>
     <t>child</t>
@@ -1017,7 +1017,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="3" outlineLevelCol="6"/>
